--- a/task/class18_191129/excises/cases.xlsx
+++ b/task/class18_191129/excises/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555" tabRatio="748" activeTab="9"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="748"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -823,9 +823,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -852,6 +852,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -860,7 +869,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,6 +898,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -904,22 +936,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -934,38 +950,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -980,17 +974,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,6 +1002,96 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1017,43 +1107,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,85 +1167,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,37 +1185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,15 +1227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1253,9 +1244,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1275,30 +1310,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1313,27 +1324,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1342,137 +1342,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1482,7 +1482,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1811,8 +1810,8 @@
   <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -1856,19 +1855,19 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1879,19 +1878,19 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1908,7 +1907,7 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1931,7 +1930,7 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1948,13 +1947,13 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1971,13 +1970,13 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1994,13 +1993,13 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2017,13 +2016,13 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2040,19 +2039,19 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2063,19 +2062,19 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2086,65 +2085,65 @@
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="4:5">
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="4:5">
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="4:5">
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="4:5">
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="4:5">
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2161,7 +2160,7 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -2395,7 +2394,7 @@
       <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2407,7 +2406,7 @@
       <c r="F4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2418,7 +2417,7 @@
       <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2430,7 +2429,7 @@
       <c r="F5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2441,7 +2440,7 @@
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2453,7 +2452,7 @@
       <c r="F6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2464,7 +2463,7 @@
       <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2476,7 +2475,7 @@
       <c r="F7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2487,7 +2486,7 @@
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2499,7 +2498,7 @@
       <c r="F8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="1" t="s">
         <v>49</v>
       </c>
     </row>
